--- a/docs/data/NBN_speeds/2020_data.xlsx
+++ b/docs/data/NBN_speeds/2020_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Sync/School/School_2021/semester_2/FIT3179_data_vis/ASS_2/docs/data/NBN_speeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FCA5EC4-2664-8946-973F-D8BE810648A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291CC10-D2CD-194A-A3D8-0F3A42B61721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{9D6ED1CD-AB1E-6A48-A27A-57497B4DFE4A}"/>
+    <workbookView xWindow="360" yWindow="2260" windowWidth="20600" windowHeight="16940" xr2:uid="{9D6ED1CD-AB1E-6A48-A27A-57497B4DFE4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>12 PM</t>
+  </si>
+  <si>
+    <t>ADSL</t>
   </si>
 </sst>
 </file>
@@ -92,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -412,34 +416,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147D6C2B-0DD2-4347-A4C3-EF1F16F46F6A}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B5" sqref="B5:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5">
         <v>44166</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>44075</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="H2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="H3" s="2">
+        <v>43952</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,9 +473,34 @@
       <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B5">
@@ -484,9 +521,33 @@
       <c r="G5">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="H5">
+        <v>88.52</v>
+      </c>
+      <c r="I5">
+        <v>43.57</v>
+      </c>
+      <c r="J5">
+        <v>22.79</v>
+      </c>
+      <c r="K5">
+        <v>8.14</v>
+      </c>
+      <c r="L5">
+        <v>88.73</v>
+      </c>
+      <c r="M5">
+        <v>43.41</v>
+      </c>
+      <c r="N5">
+        <v>22.57</v>
+      </c>
+      <c r="O5">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B6">
@@ -507,9 +568,33 @@
       <c r="G6">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="H6">
+        <v>88.52</v>
+      </c>
+      <c r="I6">
+        <v>43.57</v>
+      </c>
+      <c r="J6">
+        <v>22.79</v>
+      </c>
+      <c r="K6">
+        <v>8.14</v>
+      </c>
+      <c r="L6">
+        <v>88.73</v>
+      </c>
+      <c r="M6">
+        <v>43.41</v>
+      </c>
+      <c r="N6">
+        <v>22.57</v>
+      </c>
+      <c r="O6">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>0.125</v>
       </c>
       <c r="B7">
@@ -530,9 +615,33 @@
       <c r="G7">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="H7">
+        <v>88.52</v>
+      </c>
+      <c r="I7">
+        <v>43.57</v>
+      </c>
+      <c r="J7">
+        <v>22.79</v>
+      </c>
+      <c r="K7">
+        <v>8.14</v>
+      </c>
+      <c r="L7">
+        <v>88.73</v>
+      </c>
+      <c r="M7">
+        <v>43.41</v>
+      </c>
+      <c r="N7">
+        <v>22.57</v>
+      </c>
+      <c r="O7">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>0.16666666666666666</v>
       </c>
       <c r="B8">
@@ -553,9 +662,33 @@
       <c r="G8">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="H8">
+        <v>88.52</v>
+      </c>
+      <c r="I8">
+        <v>43.57</v>
+      </c>
+      <c r="J8">
+        <v>22.79</v>
+      </c>
+      <c r="K8">
+        <v>8.14</v>
+      </c>
+      <c r="L8">
+        <v>88.73</v>
+      </c>
+      <c r="M8">
+        <v>43.41</v>
+      </c>
+      <c r="N8">
+        <v>22.57</v>
+      </c>
+      <c r="O8">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>0.20833333333333334</v>
       </c>
       <c r="B9">
@@ -576,9 +709,33 @@
       <c r="G9">
         <v>23.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="H9">
+        <v>88.52</v>
+      </c>
+      <c r="I9">
+        <v>43.57</v>
+      </c>
+      <c r="J9">
+        <v>22.79</v>
+      </c>
+      <c r="K9">
+        <v>8.14</v>
+      </c>
+      <c r="L9">
+        <v>88.73</v>
+      </c>
+      <c r="M9">
+        <v>43.41</v>
+      </c>
+      <c r="N9">
+        <v>22.57</v>
+      </c>
+      <c r="O9">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>0.25</v>
       </c>
       <c r="B10">
@@ -599,9 +756,33 @@
       <c r="G10">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="H10">
+        <v>88.07</v>
+      </c>
+      <c r="I10">
+        <v>43.41</v>
+      </c>
+      <c r="J10">
+        <v>22.77</v>
+      </c>
+      <c r="K10">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L10">
+        <v>88.22</v>
+      </c>
+      <c r="M10">
+        <v>43.26</v>
+      </c>
+      <c r="N10">
+        <v>22.51</v>
+      </c>
+      <c r="O10">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>0.29166666666666669</v>
       </c>
       <c r="B11">
@@ -622,9 +803,33 @@
       <c r="G11">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="H11">
+        <v>88.07</v>
+      </c>
+      <c r="I11">
+        <v>43.41</v>
+      </c>
+      <c r="J11">
+        <v>22.77</v>
+      </c>
+      <c r="K11">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L11">
+        <v>88.22</v>
+      </c>
+      <c r="M11">
+        <v>43.26</v>
+      </c>
+      <c r="N11">
+        <v>22.51</v>
+      </c>
+      <c r="O11">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>0.33333333333333331</v>
       </c>
       <c r="B12">
@@ -645,9 +850,33 @@
       <c r="G12">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="H12">
+        <v>88.07</v>
+      </c>
+      <c r="I12">
+        <v>43.41</v>
+      </c>
+      <c r="J12">
+        <v>22.77</v>
+      </c>
+      <c r="K12">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L12">
+        <v>88.22</v>
+      </c>
+      <c r="M12">
+        <v>43.26</v>
+      </c>
+      <c r="N12">
+        <v>22.51</v>
+      </c>
+      <c r="O12">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>0.375</v>
       </c>
       <c r="B13">
@@ -668,9 +897,33 @@
       <c r="G13">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="H13">
+        <v>88.07</v>
+      </c>
+      <c r="I13">
+        <v>43.41</v>
+      </c>
+      <c r="J13">
+        <v>22.77</v>
+      </c>
+      <c r="K13">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L13">
+        <v>88.22</v>
+      </c>
+      <c r="M13">
+        <v>43.26</v>
+      </c>
+      <c r="N13">
+        <v>22.51</v>
+      </c>
+      <c r="O13">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>0.41666666666666669</v>
       </c>
       <c r="B14">
@@ -691,9 +944,33 @@
       <c r="G14">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="H14">
+        <v>88.07</v>
+      </c>
+      <c r="I14">
+        <v>43.41</v>
+      </c>
+      <c r="J14">
+        <v>22.77</v>
+      </c>
+      <c r="K14">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L14">
+        <v>88.22</v>
+      </c>
+      <c r="M14">
+        <v>43.26</v>
+      </c>
+      <c r="N14">
+        <v>22.51</v>
+      </c>
+      <c r="O14">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>0.45833333333333331</v>
       </c>
       <c r="B15">
@@ -714,8 +991,32 @@
       <c r="G15">
         <v>23.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>88.07</v>
+      </c>
+      <c r="I15">
+        <v>43.41</v>
+      </c>
+      <c r="J15">
+        <v>22.77</v>
+      </c>
+      <c r="K15">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L15">
+        <v>88.22</v>
+      </c>
+      <c r="M15">
+        <v>43.26</v>
+      </c>
+      <c r="N15">
+        <v>22.51</v>
+      </c>
+      <c r="O15">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,9 +1038,33 @@
       <c r="G16">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="H16">
+        <v>86.94</v>
+      </c>
+      <c r="I16">
+        <v>43.18</v>
+      </c>
+      <c r="J16">
+        <v>22.67</v>
+      </c>
+      <c r="K16">
+        <v>7.79</v>
+      </c>
+      <c r="L16">
+        <v>87.36</v>
+      </c>
+      <c r="M16">
+        <v>43.09</v>
+      </c>
+      <c r="N16">
+        <v>22.42</v>
+      </c>
+      <c r="O16">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>0.54166666666666663</v>
       </c>
       <c r="B17">
@@ -760,9 +1085,33 @@
       <c r="G17">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="H17">
+        <v>86.94</v>
+      </c>
+      <c r="I17">
+        <v>43.18</v>
+      </c>
+      <c r="J17">
+        <v>22.67</v>
+      </c>
+      <c r="K17">
+        <v>7.79</v>
+      </c>
+      <c r="L17">
+        <v>87.36</v>
+      </c>
+      <c r="M17">
+        <v>43.09</v>
+      </c>
+      <c r="N17">
+        <v>22.42</v>
+      </c>
+      <c r="O17">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>0.58333333333333337</v>
       </c>
       <c r="B18">
@@ -783,9 +1132,33 @@
       <c r="G18">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="H18">
+        <v>86.94</v>
+      </c>
+      <c r="I18">
+        <v>43.18</v>
+      </c>
+      <c r="J18">
+        <v>22.67</v>
+      </c>
+      <c r="K18">
+        <v>7.79</v>
+      </c>
+      <c r="L18">
+        <v>87.36</v>
+      </c>
+      <c r="M18">
+        <v>43.09</v>
+      </c>
+      <c r="N18">
+        <v>22.42</v>
+      </c>
+      <c r="O18">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>0.625</v>
       </c>
       <c r="B19">
@@ -806,9 +1179,33 @@
       <c r="G19">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="H19">
+        <v>86.94</v>
+      </c>
+      <c r="I19">
+        <v>43.18</v>
+      </c>
+      <c r="J19">
+        <v>22.67</v>
+      </c>
+      <c r="K19">
+        <v>7.79</v>
+      </c>
+      <c r="L19">
+        <v>87.36</v>
+      </c>
+      <c r="M19">
+        <v>43.09</v>
+      </c>
+      <c r="N19">
+        <v>22.42</v>
+      </c>
+      <c r="O19">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>0.66666666666666663</v>
       </c>
       <c r="B20">
@@ -829,9 +1226,33 @@
       <c r="G20">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="H20">
+        <v>86.94</v>
+      </c>
+      <c r="I20">
+        <v>43.18</v>
+      </c>
+      <c r="J20">
+        <v>22.67</v>
+      </c>
+      <c r="K20">
+        <v>7.79</v>
+      </c>
+      <c r="L20">
+        <v>87.36</v>
+      </c>
+      <c r="M20">
+        <v>43.09</v>
+      </c>
+      <c r="N20">
+        <v>22.42</v>
+      </c>
+      <c r="O20">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>0.70833333333333337</v>
       </c>
       <c r="B21">
@@ -852,9 +1273,33 @@
       <c r="G21">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="H21">
+        <v>86.94</v>
+      </c>
+      <c r="I21">
+        <v>43.18</v>
+      </c>
+      <c r="J21">
+        <v>22.67</v>
+      </c>
+      <c r="K21">
+        <v>7.79</v>
+      </c>
+      <c r="L21">
+        <v>87.36</v>
+      </c>
+      <c r="M21">
+        <v>43.09</v>
+      </c>
+      <c r="N21">
+        <v>22.42</v>
+      </c>
+      <c r="O21">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>0.75</v>
       </c>
       <c r="B22">
@@ -875,9 +1320,33 @@
       <c r="G22">
         <v>22.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="H22">
+        <v>85.36</v>
+      </c>
+      <c r="I22">
+        <v>42.79</v>
+      </c>
+      <c r="J22">
+        <v>22.55</v>
+      </c>
+      <c r="K22">
+        <v>7.63</v>
+      </c>
+      <c r="L22">
+        <v>86.41</v>
+      </c>
+      <c r="M22">
+        <v>42.86</v>
+      </c>
+      <c r="N22">
+        <v>22.33</v>
+      </c>
+      <c r="O22">
+        <v>8.0399999999999991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>0.79166666666666663</v>
       </c>
       <c r="B23">
@@ -898,9 +1367,33 @@
       <c r="G23">
         <v>22.81</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="H23">
+        <v>84.18</v>
+      </c>
+      <c r="I23">
+        <v>42.48</v>
+      </c>
+      <c r="J23">
+        <v>22.41</v>
+      </c>
+      <c r="K23">
+        <v>7.28</v>
+      </c>
+      <c r="L23">
+        <v>85.64</v>
+      </c>
+      <c r="M23">
+        <v>42.62</v>
+      </c>
+      <c r="N23">
+        <v>22.32</v>
+      </c>
+      <c r="O23">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>0.83333333333333337</v>
       </c>
       <c r="B24">
@@ -921,9 +1414,33 @@
       <c r="G24">
         <v>22.77</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="H24">
+        <v>83.32</v>
+      </c>
+      <c r="I24">
+        <v>42.23</v>
+      </c>
+      <c r="J24">
+        <v>22.44</v>
+      </c>
+      <c r="K24">
+        <v>7.17</v>
+      </c>
+      <c r="L24">
+        <v>83.78</v>
+      </c>
+      <c r="M24">
+        <v>42.19</v>
+      </c>
+      <c r="N24">
+        <v>22.11</v>
+      </c>
+      <c r="O24">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>0.875</v>
       </c>
       <c r="B25">
@@ -944,9 +1461,33 @@
       <c r="G25">
         <v>22.77</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="H25">
+        <v>83.39</v>
+      </c>
+      <c r="I25">
+        <v>42.16</v>
+      </c>
+      <c r="J25">
+        <v>22.4</v>
+      </c>
+      <c r="K25">
+        <v>7.13</v>
+      </c>
+      <c r="L25">
+        <v>82.93</v>
+      </c>
+      <c r="M25">
+        <v>42.05</v>
+      </c>
+      <c r="N25">
+        <v>22.01</v>
+      </c>
+      <c r="O25">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>0.91666666666666663</v>
       </c>
       <c r="B26">
@@ -967,9 +1508,33 @@
       <c r="G26">
         <v>22.86</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="H26">
+        <v>85.94</v>
+      </c>
+      <c r="I26">
+        <v>42.87</v>
+      </c>
+      <c r="J26">
+        <v>22.53</v>
+      </c>
+      <c r="K26">
+        <v>7.6</v>
+      </c>
+      <c r="L26">
+        <v>86.02</v>
+      </c>
+      <c r="M26">
+        <v>42.69</v>
+      </c>
+      <c r="N26">
+        <v>22.25</v>
+      </c>
+      <c r="O26">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>0.95833333333333337</v>
       </c>
       <c r="B27">
@@ -990,9 +1555,33 @@
       <c r="G27">
         <v>22.97</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="H27">
+        <v>87.38</v>
+      </c>
+      <c r="I27">
+        <v>43.23</v>
+      </c>
+      <c r="J27">
+        <v>22.65</v>
+      </c>
+      <c r="K27">
+        <v>7.83</v>
+      </c>
+      <c r="L27">
+        <v>87.36</v>
+      </c>
+      <c r="M27">
+        <v>42.97</v>
+      </c>
+      <c r="N27">
+        <v>22.42</v>
+      </c>
+      <c r="O27">
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>0</v>
       </c>
       <c r="B28">
@@ -1012,6 +1601,30 @@
       </c>
       <c r="G28">
         <v>23.11</v>
+      </c>
+      <c r="H28">
+        <v>88.52</v>
+      </c>
+      <c r="I28">
+        <v>43.57</v>
+      </c>
+      <c r="J28">
+        <v>22.79</v>
+      </c>
+      <c r="K28">
+        <v>8.14</v>
+      </c>
+      <c r="L28">
+        <v>88.73</v>
+      </c>
+      <c r="M28">
+        <v>43.41</v>
+      </c>
+      <c r="N28">
+        <v>22.57</v>
+      </c>
+      <c r="O28">
+        <v>8.26</v>
       </c>
     </row>
   </sheetData>
